--- a/mcmaster_excel/Metric_Painted_Steel_Pan_Head_Torx_Screws.xlsx
+++ b/mcmaster_excel/Metric_Painted_Steel_Pan_Head_Torx_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,129 +434,97 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg., mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>SpecificationsMet</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>Lg., mm</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>HeadDia., mm</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>HeadHt., mm</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>DriveSize</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ISO 14583</t>
+          <t>SpecificationsMet</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>97682A129</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>$10.29</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -596,12 +564,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>97682A131</t>
+          <t>97682A129</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>10.25</t>
+          <t>$10.29</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -618,7 +586,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -658,12 +626,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>97682A132</t>
+          <t>97682A131</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>11.11</t>
+          <t>10.25</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -680,7 +648,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -720,12 +688,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>97682A133</t>
+          <t>97682A132</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>12.40</t>
+          <t>11.11</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -742,7 +710,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -752,17 +720,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>T10</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -777,22 +745,22 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>97682A134</t>
+          <t>97682A133</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>8.64</t>
+          <t>12.40</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -804,7 +772,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -844,12 +812,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>97682A135</t>
+          <t>97682A134</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>9.13</t>
+          <t>8.64</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -866,7 +834,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -906,12 +874,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>97682A136</t>
+          <t>97682A135</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>11.31</t>
+          <t>9.13</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -928,7 +896,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -968,12 +936,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>97682A137</t>
+          <t>97682A136</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>11.61</t>
+          <t>11.31</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -990,7 +958,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1030,12 +998,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>97682A138</t>
+          <t>97682A137</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9.88</t>
+          <t>11.61</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1052,7 +1020,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1062,17 +1030,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>T20</t>
+          <t>T10</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1087,22 +1055,22 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>97682A139</t>
+          <t>97682A138</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>9.88</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1114,52 +1082,52 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>T20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>ISO 14583</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>T20</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>ISO 14583</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>97682A141</t>
+          <t>97682A139</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1176,7 +1144,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1216,12 +1184,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>97682A142</t>
+          <t>97682A141</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1238,7 +1206,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1278,12 +1246,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>97682A143</t>
+          <t>97682A142</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1300,7 +1268,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1340,12 +1308,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>97682A144</t>
+          <t>97682A143</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>6.93</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1362,57 +1330,57 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>T20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>ISO 14583</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.7</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>T25</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>ISO 14583</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>97682A145</t>
+          <t>97682A144</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>11.79</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>M5</t>
+          <t>M4</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1424,7 +1392,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1464,12 +1432,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>97682A146</t>
+          <t>97682A145</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>12.44</t>
+          <t>11.79</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1486,7 +1454,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1526,12 +1494,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>97682A147</t>
+          <t>97682A146</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>12.44</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1548,7 +1516,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1583,17 +1551,17 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>97682A148</t>
+          <t>97682A147</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1610,7 +1578,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1650,12 +1618,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>97682A149</t>
+          <t>97682A148</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>8.34</t>
+          <t>8.16</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1672,7 +1640,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1682,17 +1650,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>T30</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1707,22 +1675,22 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>97682A151</t>
+          <t>97682A149</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>14.37</t>
+          <t>8.34</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>M5</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1734,7 +1702,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1769,17 +1737,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>97682A152</t>
+          <t>97682A151</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>8.13</t>
+          <t>14.37</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1796,7 +1764,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1836,12 +1804,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>97682A153</t>
+          <t>97682A152</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>8.02</t>
+          <t>8.13</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1858,7 +1826,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1898,12 +1866,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>97682A154</t>
+          <t>97682A153</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>8.90</t>
+          <t>8.02</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1920,7 +1888,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1930,17 +1898,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>T45</t>
+          <t>T30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1960,17 +1928,17 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>97682A155</t>
+          <t>97682A154</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>9.68</t>
+          <t>8.90</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>M8</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1982,7 +1950,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2022,12 +1990,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>97682A156</t>
+          <t>97682A155</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>10.23</t>
+          <t>9.68</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2044,60 +2012,122 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>T45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>ISO 14583</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>97682A156</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>M8</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>T45</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>ISO 14583</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>ISO 14583</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>97682A157</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>13.96</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>M8</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
         </is>
